--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1807905.300170768</v>
+        <v>1805355.5937809</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12444970.70772257</v>
+        <v>12445480.89855084</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>428022.1753582571</v>
+        <v>417425.6313448999</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10178116.09743114</v>
+        <v>10182103.04786583</v>
       </c>
     </row>
     <row r="11">
@@ -674,10 +674,10 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
-        <v>111.2254363169657</v>
+        <v>208.2085323732919</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>48.44626081894172</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>109.2414887354249</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>41.65170393035857</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>135.7394832867326</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>263.7138800015061</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>19.72100737961717</v>
       </c>
       <c r="G5" t="n">
-        <v>12.81018594870496</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>270.6457911193435</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="W5" t="n">
-        <v>270.6457911193435</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>218.6985811275013</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>270.6457911193435</v>
+        <v>263.7138800015063</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>68.53264881198446</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0098845019834</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.35536037674962</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.47989429600511</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>61.12783360076062</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8536430901046</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.4281751264813</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>68.05955538367301</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>221.2502278736443</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>192.0872650464914</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.50612826256146</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>16.71410042222059</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>380.1644453249467</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8053789271548</v>
       </c>
       <c r="H11" t="n">
-        <v>283.5630920045443</v>
+        <v>283.1749784766144</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081962</v>
+        <v>83.74901076264533</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374742</v>
+        <v>199.0311623452478</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9058642207981</v>
       </c>
       <c r="V11" t="n">
-        <v>277.4607323328442</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1461,10 +1461,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4021710092738</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561455</v>
+        <v>83.82823269715954</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.4255876952162</v>
+        <v>117.0489563585645</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3090395918922</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7478724655842</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>8.099360810322375</v>
+        <v>165.5250535492193</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.4163999908188</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>181.0422364341348</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>217.4093609706218</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1845243123506</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>152.0835135769549</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>97.98413062224103</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462256</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>65.67353929277067</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>141.5017810206662</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>23.62554568141135</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.0280580960833</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>94.05355358057933</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>55.5207962406006</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>217.40545032729</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>185.3892167411496</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>61.44013021076719</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892427987</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576399</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503955</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,10 +3955,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>211.8172046759404</v>
       </c>
       <c r="W43" t="n">
-        <v>169.8538311717799</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>104.8913819999769</v>
+        <v>167.2468210986293</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>32.84316668127623</v>
       </c>
     </row>
   </sheetData>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.00642392276842</v>
+        <v>423.8554133656</v>
       </c>
       <c r="C2" t="n">
-        <v>41.00642392276842</v>
+        <v>423.8554133656</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276842</v>
+        <v>423.8554133656</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>423.8554133656</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>416.9099126163965</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991316</v>
@@ -4358,22 +4358,22 @@
         <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298169</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>686.1106626298169</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V2" t="n">
-        <v>686.1106626298169</v>
+        <v>634.167062227511</v>
       </c>
       <c r="W2" t="n">
-        <v>573.7617370571243</v>
+        <v>423.8554133656</v>
       </c>
       <c r="X2" t="n">
-        <v>307.3840804899464</v>
+        <v>423.8554133656</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.00642392276842</v>
+        <v>423.8554133656</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>503.7220043479542</v>
+        <v>354.787594686703</v>
       </c>
       <c r="C3" t="n">
-        <v>329.2689750668272</v>
+        <v>180.334565405576</v>
       </c>
       <c r="D3" t="n">
         <v>180.334565405576</v>
@@ -4410,22 +4410,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957468</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>247.7358133554696</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>438.3365024519934</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>648.3904695545984</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>987.5840192239847</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>790.7749408554223</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>562.6390948922358</v>
       </c>
       <c r="V3" t="n">
-        <v>1036.519636212815</v>
+        <v>562.6390948922358</v>
       </c>
       <c r="W3" t="n">
-        <v>782.2822794846131</v>
+        <v>562.6390948922358</v>
       </c>
       <c r="X3" t="n">
-        <v>671.9373413680223</v>
+        <v>354.787594686703</v>
       </c>
       <c r="Y3" t="n">
-        <v>671.9373413680223</v>
+        <v>354.787594686703</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.2137498124562</v>
+        <v>232.1057215405108</v>
       </c>
       <c r="C4" t="n">
-        <v>171.2137498124562</v>
+        <v>63.1695386126039</v>
       </c>
       <c r="D4" t="n">
-        <v>21.09711040012049</v>
+        <v>63.1695386126039</v>
       </c>
       <c r="E4" t="n">
-        <v>21.09711040012049</v>
+        <v>63.1695386126039</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>63.1695386126039</v>
       </c>
       <c r="G4" t="n">
         <v>21.09711040012049</v>
@@ -4489,16 +4489,16 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
         <v>918.4699372075542</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>917.7449308275068</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T4" t="n">
-        <v>692.2758945855211</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="U4" t="n">
-        <v>692.2758945855211</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="V4" t="n">
-        <v>437.5914063796342</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="W4" t="n">
-        <v>171.2137498124562</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="X4" t="n">
-        <v>171.2137498124562</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="Y4" t="n">
-        <v>171.2137498124562</v>
+        <v>232.1057215405108</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.53674580511959</v>
+        <v>53.98113264792573</v>
       </c>
       <c r="C5" t="n">
-        <v>41.53674580511959</v>
+        <v>53.98113264792573</v>
       </c>
       <c r="D5" t="n">
-        <v>41.53674580511959</v>
+        <v>53.98113264792573</v>
       </c>
       <c r="E5" t="n">
-        <v>41.53674580511959</v>
+        <v>53.98113264792573</v>
       </c>
       <c r="F5" t="n">
-        <v>34.59124505591613</v>
+        <v>34.06092317356496</v>
       </c>
       <c r="G5" t="n">
-        <v>21.65166328954748</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>21.65166328954748</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.65166328954748</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>51.8528943343108</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>147.8552290548787</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>303.8563762408136</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>509.1071481323418</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>722.2929004749834</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O5" t="n">
-        <v>910.262899928478</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P5" t="n">
-        <v>1036.189944763445</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1082.583164477374</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>1082.583164477374</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1082.583164477374</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>1082.583164477374</v>
+        <v>840.421463841153</v>
       </c>
       <c r="U5" t="n">
-        <v>1082.583164477374</v>
+        <v>586.7364457822819</v>
       </c>
       <c r="V5" t="n">
-        <v>809.2035774881381</v>
+        <v>320.3587892151038</v>
       </c>
       <c r="W5" t="n">
-        <v>535.8239904989023</v>
+        <v>320.3587892151038</v>
       </c>
       <c r="X5" t="n">
-        <v>314.9163327943555</v>
+        <v>320.3587892151038</v>
       </c>
       <c r="Y5" t="n">
-        <v>41.53674580511959</v>
+        <v>53.98113264792573</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>303.3134200317072</v>
+        <v>329.2689750668272</v>
       </c>
       <c r="C6" t="n">
-        <v>303.3134200317072</v>
+        <v>329.2689750668272</v>
       </c>
       <c r="D6" t="n">
-        <v>303.3134200317072</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E6" t="n">
-        <v>303.3134200317072</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>303.3134200317072</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9296983125321</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>65.57074843702739</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.65166328954748</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.65166328954748</v>
+        <v>117.4455628004804</v>
       </c>
       <c r="K6" t="n">
-        <v>98.38754287825478</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L6" t="n">
-        <v>247.8909439361429</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M6" t="n">
-        <v>441.7112295230993</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N6" t="n">
-        <v>655.0700062550302</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O6" t="n">
-        <v>828.0318087456252</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P6" t="n">
-        <v>1052.63045186362</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q6" t="n">
-        <v>1082.583164477374</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1082.583164477374</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1082.583164477374</v>
+        <v>887.8833378166548</v>
       </c>
       <c r="T6" t="n">
-        <v>1020.837878011959</v>
+        <v>887.8833378166548</v>
       </c>
       <c r="U6" t="n">
-        <v>792.7028849916514</v>
+        <v>887.8833378166548</v>
       </c>
       <c r="V6" t="n">
-        <v>557.5507767599088</v>
+        <v>652.7312295849122</v>
       </c>
       <c r="W6" t="n">
-        <v>303.3134200317072</v>
+        <v>398.4938728567105</v>
       </c>
       <c r="X6" t="n">
-        <v>303.3134200317072</v>
+        <v>398.4938728567105</v>
       </c>
       <c r="Y6" t="n">
-        <v>303.3134200317072</v>
+        <v>398.4938728567105</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>316.454704369851</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C7" t="n">
-        <v>316.454704369851</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D7" t="n">
-        <v>316.454704369851</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E7" t="n">
-        <v>168.5416107874578</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F7" t="n">
-        <v>21.65166328954748</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G7" t="n">
-        <v>21.65166328954748</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H7" t="n">
-        <v>21.65166328954748</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I7" t="n">
-        <v>21.65166328954748</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
-        <v>21.65166328954748</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>128.2056025464433</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>320.0843941609292</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>532.7827996211338</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>745.8583288256596</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>926.6517718053128</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
-        <v>1057.831113077931</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>1065.21780925808</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1065.21780925808</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1065.21780925808</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="T7" t="n">
-        <v>1065.21780925808</v>
+        <v>622.5994491745504</v>
       </c>
       <c r="U7" t="n">
-        <v>1065.21780925808</v>
+        <v>356.2217926073723</v>
       </c>
       <c r="V7" t="n">
-        <v>810.5333210521929</v>
+        <v>356.2217926073723</v>
       </c>
       <c r="W7" t="n">
-        <v>544.4442552678684</v>
+        <v>89.84413604019426</v>
       </c>
       <c r="X7" t="n">
-        <v>316.454704369851</v>
+        <v>89.84413604019426</v>
       </c>
       <c r="Y7" t="n">
-        <v>316.454704369851</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1798.734238163264</v>
+        <v>1213.292347699871</v>
       </c>
       <c r="C8" t="n">
-        <v>1429.771721222852</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D8" t="n">
-        <v>1071.506022616102</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E8" t="n">
-        <v>685.7177700178574</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>274.7318652282499</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X8" t="n">
-        <v>2188.873570139076</v>
+        <v>1990.031519739804</v>
       </c>
       <c r="Y8" t="n">
-        <v>1798.734238163264</v>
+        <v>1599.892187763993</v>
       </c>
     </row>
     <row r="9">
@@ -4878,34 +4878,34 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458215</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105042</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1614.486495938517</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>1946.556931114678</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>368.9218676324039</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1619.563190355083</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1422.934442514944</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1422.934442514944</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1133.816105018782</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>879.1316168128947</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037537</v>
+        <v>589.714446775934</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>589.714446775934</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959893</v>
+        <v>368.9218676324039</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.224468905844</v>
+        <v>2317.747847446864</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965432</v>
+        <v>1948.785330506452</v>
       </c>
       <c r="D11" t="n">
-        <v>1589.996253358682</v>
+        <v>1590.519631899702</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.208000760437</v>
+        <v>1204.731379301457</v>
       </c>
       <c r="F11" t="n">
-        <v>793.22209597083</v>
+        <v>793.7454745118498</v>
       </c>
       <c r="G11" t="n">
-        <v>379.2389888872365</v>
+        <v>379.8006473127035</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608054</v>
+        <v>93.76531551814351</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608054</v>
+        <v>95.21173263691935</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251939</v>
+        <v>377.8919112275231</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128758</v>
+        <v>852.2947399039274</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.457663018651</v>
+        <v>1477.735160302607</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957689</v>
+        <v>2205.327574907677</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874795</v>
+        <v>2949.30700383434</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333933</v>
+        <v>3638.490420549524</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021281</v>
+        <v>4192.191521035104</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.497374127289</v>
+        <v>4559.825241454973</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304027</v>
+        <v>4688.265775907175</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070876</v>
+        <v>4603.670815540867</v>
       </c>
       <c r="T11" t="n">
-        <v>4353.904749750194</v>
+        <v>4402.629237414354</v>
       </c>
       <c r="U11" t="n">
-        <v>4100.461420469744</v>
+        <v>4149.188970524659</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.198054476972</v>
+        <v>3818.126083181089</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.429399206857</v>
+        <v>3465.357427910974</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.963640945778</v>
+        <v>3091.891669649895</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.824308969966</v>
+        <v>2701.752337674083</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>942.6241165038822</v>
+        <v>943.3595186577119</v>
       </c>
       <c r="C12" t="n">
-        <v>768.1710872227552</v>
+        <v>768.9064893765849</v>
       </c>
       <c r="D12" t="n">
-        <v>619.2366775615039</v>
+        <v>619.9720797153336</v>
       </c>
       <c r="E12" t="n">
-        <v>459.9992225560484</v>
+        <v>460.7346247098782</v>
       </c>
       <c r="F12" t="n">
-        <v>313.4646645829333</v>
+        <v>314.2000667367631</v>
       </c>
       <c r="G12" t="n">
-        <v>177.6844143428629</v>
+        <v>178.4402980405269</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608054</v>
+        <v>93.76531551814351</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608054</v>
+        <v>93.76531551814351</v>
       </c>
       <c r="J12" t="n">
-        <v>92.81162322608054</v>
+        <v>243.3098463766212</v>
       </c>
       <c r="K12" t="n">
-        <v>92.81162322608054</v>
+        <v>577.0600934411111</v>
       </c>
       <c r="L12" t="n">
-        <v>583.5439560698319</v>
+        <v>1072.151029113134</v>
       </c>
       <c r="M12" t="n">
-        <v>1175.56231032196</v>
+        <v>1072.151029113134</v>
       </c>
       <c r="N12" t="n">
-        <v>1797.658273721296</v>
+        <v>1699.467895231665</v>
       </c>
       <c r="O12" t="n">
-        <v>2344.53474872149</v>
+        <v>2251.120476233783</v>
       </c>
       <c r="P12" t="n">
-        <v>2552.77562977024</v>
+        <v>2319.922996253382</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.046693765828</v>
       </c>
       <c r="R12" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.046693765828</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.163925027597</v>
+        <v>2434.815424716773</v>
       </c>
       <c r="T12" t="n">
-        <v>2243.870218930011</v>
+        <v>2244.604273613852</v>
       </c>
       <c r="U12" t="n">
-        <v>2015.840717454381</v>
+        <v>2016.576119608211</v>
       </c>
       <c r="V12" t="n">
-        <v>1780.688609222638</v>
+        <v>1781.424011376468</v>
       </c>
       <c r="W12" t="n">
-        <v>1526.451252494437</v>
+        <v>1527.186654648267</v>
       </c>
       <c r="X12" t="n">
-        <v>1318.599752288904</v>
+        <v>1319.335154442734</v>
       </c>
       <c r="Y12" t="n">
-        <v>1110.83945352395</v>
+        <v>1111.57485567778</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>561.9183350635719</v>
+        <v>580.0151616454763</v>
       </c>
       <c r="C13" t="n">
-        <v>392.982152135665</v>
+        <v>411.0789787175694</v>
       </c>
       <c r="D13" t="n">
-        <v>242.8655127233293</v>
+        <v>260.9623393052337</v>
       </c>
       <c r="E13" t="n">
-        <v>242.8655127233293</v>
+        <v>260.9623393052337</v>
       </c>
       <c r="F13" t="n">
-        <v>242.8655127233293</v>
+        <v>260.9623393052337</v>
       </c>
       <c r="G13" t="n">
-        <v>234.6843401876502</v>
+        <v>93.76531551814351</v>
       </c>
       <c r="H13" t="n">
-        <v>92.81162322608054</v>
+        <v>93.76531551814351</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608054</v>
+        <v>93.76531551814351</v>
       </c>
       <c r="J13" t="n">
-        <v>171.7937461156345</v>
+        <v>173.9372723687379</v>
       </c>
       <c r="K13" t="n">
-        <v>431.4224730861981</v>
+        <v>435.5212620398414</v>
       </c>
       <c r="L13" t="n">
-        <v>819.1842911693324</v>
+        <v>825.7851432062798</v>
       </c>
       <c r="M13" t="n">
-        <v>1238.413883213792</v>
+        <v>1247.652809956953</v>
       </c>
       <c r="N13" t="n">
-        <v>1653.109749005499</v>
+        <v>1664.924022934746</v>
       </c>
       <c r="O13" t="n">
-        <v>2020.132206020528</v>
+        <v>2034.325229908147</v>
       </c>
       <c r="P13" t="n">
-        <v>2310.662640856733</v>
+        <v>2326.891096275493</v>
       </c>
       <c r="Q13" t="n">
-        <v>2428.375774410168</v>
+        <v>2446.013457116461</v>
       </c>
       <c r="R13" t="n">
-        <v>2428.375774410168</v>
+        <v>2378.926184398462</v>
       </c>
       <c r="S13" t="n">
-        <v>2245.205584149098</v>
+        <v>2196.055238505397</v>
       </c>
       <c r="T13" t="n">
-        <v>2025.52680186348</v>
+        <v>1976.449823383556</v>
       </c>
       <c r="U13" t="n">
-        <v>1736.450588178207</v>
+        <v>1687.374546300374</v>
       </c>
       <c r="V13" t="n">
-        <v>1481.76609997232</v>
+        <v>1432.690058094487</v>
       </c>
       <c r="W13" t="n">
-        <v>1192.348929935359</v>
+        <v>1143.272888057526</v>
       </c>
       <c r="X13" t="n">
-        <v>964.3593790373418</v>
+        <v>915.2833371595088</v>
       </c>
       <c r="Y13" t="n">
-        <v>743.5667998938117</v>
+        <v>761.663626475716</v>
       </c>
     </row>
     <row r="14">
@@ -5258,49 +5258,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.843151638089</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>572.9069687101821</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>422.7903292978464</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>274.8772357154533</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>274.8772357154533</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263528</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356211</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232853</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408922</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429819</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578618</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2380.626175203725</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2091.550948547923</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1836.866460342036</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1547.449290305075</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1319.459739407058</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1098.667160263528</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5838,16 +5838,16 @@
         <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,16 +5969,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,19 +5987,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6157,40 +6157,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="26">
@@ -6206,37 +6206,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.2707707770319</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C28" t="n">
-        <v>634.334587849125</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072716</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="29">
@@ -6443,19 +6443,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192599</v>
@@ -6464,16 +6464,16 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580257</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6786,10 +6786,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400694</v>
+        <v>633.4413279836774</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121625</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121625</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121625</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121625</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270425</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.052681478294</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038326</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797726</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854704</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648817</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138393</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703091</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7138,7 +7138,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7345,37 +7345,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7409,13 +7409,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>631.7012443408906</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C43" t="n">
-        <v>631.7012443408906</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7588,31 +7588,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.131839212678</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X43" t="n">
-        <v>1034.14228831466</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y43" t="n">
-        <v>813.3497091711304</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="44">
@@ -7628,28 +7628,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7728,13 +7728,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400699</v>
+        <v>701.4712640439284</v>
       </c>
       <c r="C46" t="n">
-        <v>407.9027098310023</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D46" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7819,37 +7819,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138397</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703096</v>
+        <v>883.1197288741681</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5.262887399594092</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>92.05878169167801</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>59.01279547936798</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8385865109869428</v>
+        <v>99.37288961069086</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>106.176378061319</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179985</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>255.8421700460953</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.56939633853392</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>50.2915261372907</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>157.4426920668446</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.3028503125647</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>81.29336059121941</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>66.50113977513988</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>67.54000767002782</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>151.7319110345176</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>25.74504007796168</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462256</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>124.989927336801</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24452,7 +24452,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5874149221290565</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
     </row>
     <row r="29">
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>125.505489761044</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>40.32043864788753</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24929,7 +24929,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194402</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25208,7 +25208,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
     </row>
     <row r="38">
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,10 +25843,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>40.32043864788758</v>
       </c>
       <c r="W43" t="n">
-        <v>116.6691671648111</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>62.35543909865098</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,10 +26035,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>185.7414866708186</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>894317.3227858301</v>
+        <v>894250.9979781549</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>870810.0260560435</v>
+        <v>875366.5399817873</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>875611.8662119169</v>
+        <v>875611.8662119168</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>875611.8662119167</v>
+        <v>875611.8662119168</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>875611.8662119167</v>
+        <v>875611.8662119168</v>
       </c>
     </row>
   </sheetData>
@@ -26314,25 +26314,25 @@
         <v>554203.1946583911</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
-        <v>541808.8458556711</v>
+        <v>544669.9127392774</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="J2" t="n">
         <v>544823.9547907539</v>
@@ -26341,16 +26341,16 @@
         <v>544823.9547907538</v>
       </c>
       <c r="L2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="N2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="M2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907538</v>
-      </c>
       <c r="O2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.954790754</v>
       </c>
       <c r="P2" t="n">
         <v>544823.954790754</v>
@@ -26366,16 +26366,16 @@
         <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>7673.23095334143</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>383864.7205861349</v>
+        <v>391128.3638059434</v>
       </c>
       <c r="E3" t="n">
-        <v>495753.0386361761</v>
+        <v>506886.0326267311</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.2631150414</v>
+        <v>585.096639051832</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>1784.052100575441</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>93628.24182084526</v>
+        <v>95382.64613756974</v>
       </c>
       <c r="M3" t="n">
-        <v>129476.5444317441</v>
+        <v>132447.3436061348</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704785</v>
+        <v>157.204955478393</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,22 +26418,22 @@
         <v>247648.5670423891</v>
       </c>
       <c r="C4" t="n">
-        <v>245563.5846255598</v>
+        <v>247648.567042389</v>
       </c>
       <c r="D4" t="n">
         <v>135522.1369769831</v>
       </c>
       <c r="E4" t="n">
-        <v>8720.723770518933</v>
+        <v>8726.922639831255</v>
       </c>
       <c r="F4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="H4" t="n">
         <v>8727.256391744284</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
         <v>8727.256391744282</v>
@@ -26442,16 +26442,16 @@
         <v>8727.256391744284</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="L4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
+        <v>8727.256391744295</v>
+      </c>
+      <c r="N4" t="n">
         <v>8727.256391744282</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8727.256391744284</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744282</v>
@@ -26470,13 +26470,13 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63599.34810691485</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="D5" t="n">
         <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>100142.1285138384</v>
+        <v>101072.441076759</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-436581.1561794573</v>
       </c>
       <c r="C6" t="n">
-        <v>237367.0309725752</v>
+        <v>243506.824411736</v>
       </c>
       <c r="D6" t="n">
-        <v>-58121.43534457106</v>
+        <v>-65385.0785643797</v>
       </c>
       <c r="E6" t="n">
-        <v>-62807.0450648624</v>
+        <v>-72050.79205559623</v>
       </c>
       <c r="F6" t="n">
-        <v>423521.9054600612</v>
+        <v>434354.3340106149</v>
       </c>
       <c r="G6" t="n">
-        <v>434974.168575103</v>
+        <v>434939.4306496668</v>
       </c>
       <c r="H6" t="n">
-        <v>434974.1685751025</v>
+        <v>434939.430649667</v>
       </c>
       <c r="I6" t="n">
-        <v>434974.1685751024</v>
+        <v>434939.430649667</v>
       </c>
       <c r="J6" t="n">
-        <v>365975.0141559884</v>
+        <v>365940.2762305527</v>
       </c>
       <c r="K6" t="n">
-        <v>433190.1164745271</v>
+        <v>434939.4306496667</v>
       </c>
       <c r="L6" t="n">
-        <v>341345.9267542573</v>
+        <v>339556.7845120968</v>
       </c>
       <c r="M6" t="n">
-        <v>305497.6241433583</v>
+        <v>302492.0870435318</v>
       </c>
       <c r="N6" t="n">
-        <v>431897.1512193976</v>
+        <v>434782.2256941885</v>
       </c>
       <c r="O6" t="n">
-        <v>434974.1685751028</v>
+        <v>434939.4306496669</v>
       </c>
       <c r="P6" t="n">
-        <v>434974.1685751026</v>
+        <v>434939.4306496669</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>620.0222021494848</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716386</v>
+        <v>1367.467948760088</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,16 +26790,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>270.6457911193435</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>1160.145290326007</v>
+        <v>1172.066443976794</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>5.967188380006519</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>314.0426899680546</v>
+        <v>320.0098783480609</v>
       </c>
       <c r="E3" t="n">
-        <v>423.9761565988465</v>
+        <v>433.4030566425484</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625288148</v>
+        <v>0.5075515815860854</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>6.93191111783733</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>369.9390409806954</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="E4" t="n">
-        <v>519.5604582259679</v>
+        <v>531.4816118767548</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364188</v>
+        <v>0.6418441228545362</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>6.931911117836876</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>369.9390409806957</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>519.5604582259679</v>
+        <v>531.4816118767548</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364188</v>
+        <v>0.6418441228545362</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>6.93191111783733</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>369.9390409806954</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>519.5604582259679</v>
+        <v>531.4816118767548</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364188</v>
+        <v>0.6418441228545362</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
-        <v>238.0155324004473</v>
+        <v>141.0324363441211</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,22 +27506,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>98.70367459325706</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>96.53149646805258</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>125.231963108188</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>68.97968095686116</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>22.80911833508486</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>387.1550383620943</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>313.947958386065</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>114.3817953056099</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.2210507662197</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.1847050820836</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1462487825221</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>57.10646735079143</v>
+        <v>64.03837846862865</v>
       </c>
       <c r="W5" t="n">
-        <v>78.59517759806954</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>151.0325195509677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>115.5921475367101</v>
+        <v>122.5240586545473</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>98.00053483788288</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>17.35562383539681</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>146.9115293481485</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>133.6614195867461</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8729065349105</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>152.286488676256</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>121.8269758336436</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>14.31143149181143</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.0207715110818</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.531638012045</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.1683691822117</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2580435661155</v>
+        <v>22.54475050117122</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>23.09482321010967</v>
+        <v>22.80911833508475</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>150.5250979684218</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>190.2974748993097</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>177.6438356319777</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>115.3258519193758</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>84.84347199735305</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>-2.711780146180205e-13</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29709,7 +29709,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -29721,7 +29721,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29928,7 +29928,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>-2.711780146180205e-13</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30417,7 +30417,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>-2.711780146180205e-13</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>-2.711780146180205e-13</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30855,7 +30855,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>-8.264734206300728e-14</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -30891,7 +30891,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>-2.711780146180205e-13</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.492551566430087</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
-        <v>25.52684372970214</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>96.09409426479604</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
-        <v>211.5521985112958</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>317.0619063182815</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
-        <v>393.3433313194164</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>437.6702452389175</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>444.752207377037</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>419.9668977383478</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
-        <v>358.4320309421049</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>269.1675279693273</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>156.5727423347641</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.79901882002568</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
-        <v>10.91114448204771</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.199404125314407</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.333632661227194</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
-        <v>12.88008385974685</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.91673855540996</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>125.9990401556798</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
-        <v>215.3524284579017</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>289.5679162019835</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
-        <v>337.9121001714691</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>346.8556279741726</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>317.3051358490858</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>254.6653456338139</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
-        <v>170.2370393524397</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.80221031724632</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
-        <v>24.77164175568931</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.375475507314871</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08773899087021014</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.118072823548251</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.940683831183549</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
-        <v>33.62349909361469</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>79.04774862486134</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>129.899733499515</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
-        <v>166.2269359664373</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>175.2629972403863</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>171.0956348980702</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>158.0345114593474</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
-        <v>135.225825858963</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>93.6233525245722</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>50.27261986608772</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.48496002492724</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.777220246069799</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06098579037535922</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377426</v>
+        <v>5.497358587980248</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122283</v>
+        <v>56.29982363915273</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>211.9369169631087</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874065</v>
+        <v>466.581438456589</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830431</v>
+        <v>699.284627485793</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364265</v>
+        <v>867.5244153726937</v>
       </c>
       <c r="M11" t="n">
-        <v>958.633669529331</v>
+        <v>965.2880661616874</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229609</v>
+        <v>980.9074362497863</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086953</v>
+        <v>926.2430767905577</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687525</v>
+        <v>790.5270366497951</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148607</v>
+        <v>593.6528822177523</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987163</v>
+        <v>345.3234514022145</v>
       </c>
       <c r="S11" t="n">
-        <v>124.4074789854257</v>
+        <v>125.2710588236</v>
       </c>
       <c r="T11" t="n">
-        <v>23.8987927266572</v>
+        <v>24.06468721888355</v>
       </c>
       <c r="U11" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4397886870384197</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540905</v>
+        <v>2.941346153936792</v>
       </c>
       <c r="H12" t="n">
-        <v>28.21138103088191</v>
+        <v>28.40721153933692</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.8927083418967</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>474.9629006556618</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745725</v>
+        <v>638.6462339940391</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927639</v>
+        <v>764.9951122030608</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426205</v>
+        <v>699.821073739514</v>
       </c>
       <c r="P12" t="n">
-        <v>344.3187317059969</v>
+        <v>203.4719023836216</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.4602564218264</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862161</v>
+        <v>54.63421474527328</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821093</v>
+        <v>11.85568910292944</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1935096153905785</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291843</v>
+        <v>2.465925809239502</v>
       </c>
       <c r="H13" t="n">
-        <v>21.77318271548567</v>
+        <v>21.92432219487486</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284927</v>
+        <v>74.15711433603887</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273333</v>
+        <v>174.3409547132328</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900886</v>
+        <v>286.4957440189166</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640619</v>
+        <v>366.6159153118439</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265022</v>
+        <v>386.5450793519703</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416875</v>
+        <v>377.3539013357142</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465963</v>
+        <v>348.5474043823254</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282424</v>
+        <v>298.2425178738393</v>
       </c>
       <c r="Q13" t="n">
-        <v>205.0641983561742</v>
+        <v>206.4876602627732</v>
       </c>
       <c r="R13" t="n">
-        <v>110.1126397860859</v>
+        <v>110.8769913863507</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851329</v>
+        <v>42.97436160283749</v>
       </c>
       <c r="T13" t="n">
-        <v>10.46359496551969</v>
+        <v>10.53622845765969</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1345050441403366</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>181.9330708814852</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32558,7 +32558,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>698.850866879865</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32567,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>209.2370040367373</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>139.5228722182831</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,25 +33260,25 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>533.0479862785273</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33506,13 +33506,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>377.6350660745956</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,28 +33974,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,16 +34448,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>530.5785304507792</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>153.4895779655504</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34790,13 +34790,13 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>30.50629398460956</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>96.97205527330095</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>157.5769163494292</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>207.3240120116447</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>215.3391437804461</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>189.868686316661</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>127.1990351868354</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>46.86183809487781</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.32166909127262</v>
       </c>
       <c r="K6" t="n">
-        <v>77.51098948354272</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>151.0135364221093</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>195.7780662494508</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>215.5139158908393</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>174.7088914046414</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>226.8673162808026</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>30.25526526641818</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>107.6302416736321</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
-        <v>193.8169612267534</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>214.8468742022269</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>215.2278072772988</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6196393733871</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>132.5043851238565</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.461309272877813</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>466.4238188159145</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>640.584832100039</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>505.5216991696276</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.461027392702789</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607202</v>
+        <v>285.5355339299027</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380626</v>
+        <v>479.1947764408124</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664393</v>
+        <v>631.7580004027066</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020583</v>
+        <v>734.9418329344147</v>
       </c>
       <c r="N11" t="n">
-        <v>744.73230092637</v>
+        <v>751.4943726531953</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870085</v>
+        <v>696.1448653688709</v>
       </c>
       <c r="P11" t="n">
-        <v>553.844392613483</v>
+        <v>559.2940408945256</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404112</v>
+        <v>371.3471923433028</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845842</v>
+        <v>129.7379135880824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.05508167523</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.1214616813028</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946983</v>
+        <v>500.0918542141649</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094306</v>
+        <v>633.6534001197275</v>
       </c>
       <c r="O12" t="n">
-        <v>552.4004797981761</v>
+        <v>557.2248292950695</v>
       </c>
       <c r="P12" t="n">
-        <v>210.3443242916667</v>
+        <v>69.49749496929135</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.4784823358049</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066052</v>
+        <v>80.98177459656</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642057</v>
+        <v>264.2262521930338</v>
       </c>
       <c r="L13" t="n">
-        <v>391.678604124378</v>
+        <v>394.20594057216</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883428</v>
+        <v>426.1289563138109</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209161</v>
+        <v>421.4860737149428</v>
       </c>
       <c r="O13" t="n">
-        <v>370.729754560636</v>
+        <v>373.1325322963651</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931359</v>
+        <v>295.5210771387328</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044799</v>
+        <v>120.3256170110788</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36206,7 +36206,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>556.7168329578467</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36215,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36525,7 +36525,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899057</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060454</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>399.073578864197</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37005,7 +37005,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306621</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
         <v>120.4022572998984</v>
@@ -37154,13 +37154,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>235.5010321525773</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295167</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060437</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38187,7 +38187,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060437</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
